--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43D66B-7ED7-5342-9557-2D8A2C4F722B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3376F1-662F-494E-93FA-5A881B4D6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="70">
   <si>
     <t>Name:</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -658,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,20 +840,17 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>202</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -858,18 +861,20 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -879,16 +884,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -903,13 +905,16 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
@@ -924,13 +929,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -945,19 +950,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>0.85</v>
+      <c r="H15" t="s">
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -969,20 +971,21 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -991,26 +994,20 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>330</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1027,7 +1024,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G18">
+        <v>330</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -1053,7 +1053,7 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1079,7 +1079,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -1105,7 +1105,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -1131,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -1157,7 +1157,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -1183,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -1209,7 +1209,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -1235,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -1261,10 +1261,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
-      </c>
-      <c r="G27">
-        <v>857</v>
+        <v>1999</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -1290,7 +1287,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>857</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -1316,7 +1316,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -1342,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -1368,7 +1368,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -1394,10 +1394,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
-      </c>
-      <c r="G32">
-        <v>870</v>
+        <v>2004</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -1423,7 +1420,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="G33">
+        <v>870</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -1449,7 +1449,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -1475,7 +1475,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -1501,7 +1501,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1527,10 +1527,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
-      </c>
-      <c r="G37">
-        <v>1028</v>
+        <v>2009</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -1556,7 +1553,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G38">
+        <v>1028</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -1582,10 +1582,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
-      </c>
-      <c r="G39">
-        <v>919</v>
+        <v>2011</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -1611,10 +1608,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>769</v>
+        <v>919</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -1640,10 +1637,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>521</v>
+        <v>769</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -1669,7 +1666,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G42">
+        <v>521</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -1695,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -1721,7 +1721,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -1747,7 +1747,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -1793,25 +1793,22 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
-      </c>
-      <c r="G47">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1828,7 +1825,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>63</v>
@@ -1857,7 +1854,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>63</v>
@@ -1886,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>63</v>
@@ -1915,10 +1912,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H51" t="s">
         <v>58</v>
@@ -1944,10 +1941,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
@@ -1973,10 +1970,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
         <v>58</v>
@@ -2002,10 +1999,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H54" t="s">
         <v>58</v>
@@ -2031,10 +2028,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="H55" t="s">
         <v>58</v>
@@ -2060,10 +2057,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H56" t="s">
         <v>58</v>
@@ -2089,10 +2086,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H57" t="s">
         <v>58</v>
@@ -2118,10 +2115,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
         <v>58</v>
@@ -2147,10 +2144,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
@@ -2176,10 +2173,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="H60" t="s">
         <v>58</v>
@@ -2205,10 +2202,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="H61" t="s">
         <v>58</v>
@@ -2234,10 +2231,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
@@ -2263,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H63" t="s">
         <v>58</v>
@@ -2292,10 +2289,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H64" t="s">
         <v>58</v>
@@ -2321,10 +2318,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="H65" t="s">
         <v>58</v>
@@ -2350,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
@@ -2379,10 +2376,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
         <v>58</v>
@@ -2408,10 +2405,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="H68" t="s">
         <v>58</v>
@@ -2437,10 +2434,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="H69" t="s">
         <v>58</v>
@@ -2466,10 +2463,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H70" t="s">
         <v>58</v>
@@ -2495,10 +2492,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="H71" t="s">
         <v>58</v>
@@ -2524,10 +2521,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
@@ -2553,10 +2550,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
         <v>58</v>
@@ -2582,10 +2579,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>228.011</v>
+        <v>230</v>
       </c>
       <c r="H74" t="s">
         <v>58</v>
@@ -2611,10 +2608,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>224.96899999999999</v>
+        <v>228.011</v>
       </c>
       <c r="H75" t="s">
         <v>58</v>
@@ -2640,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>224.96899999999999</v>
@@ -2663,16 +2660,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>224.96899999999999</v>
       </c>
       <c r="H77" t="s">
         <v>58</v>
@@ -2682,9 +2679,6 @@
       </c>
       <c r="J77" t="s">
         <v>59</v>
-      </c>
-      <c r="L77" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,7 +2695,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2733,7 +2727,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2765,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2797,10 +2791,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>58</v>
@@ -2829,10 +2823,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H82" t="s">
         <v>58</v>
@@ -2861,10 +2855,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
         <v>58</v>
@@ -2893,10 +2887,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
         <v>58</v>
@@ -2925,10 +2919,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H85" t="s">
         <v>58</v>
@@ -2957,10 +2951,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>58</v>
@@ -2989,10 +2983,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>58</v>
@@ -3021,10 +3015,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
         <v>58</v>
@@ -3053,10 +3047,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
@@ -3085,10 +3079,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
         <v>58</v>
@@ -3117,10 +3111,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
         <v>58</v>
@@ -3149,10 +3143,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>58</v>
@@ -3181,10 +3175,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
         <v>58</v>
@@ -3213,10 +3207,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
         <v>58</v>
@@ -3245,10 +3239,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>58</v>
@@ -3277,10 +3271,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
@@ -3309,10 +3303,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H97" t="s">
         <v>58</v>
@@ -3341,10 +3335,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s">
         <v>58</v>
@@ -3373,10 +3367,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>58</v>
@@ -3405,10 +3399,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H100" t="s">
         <v>58</v>
@@ -3437,10 +3431,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>58</v>
@@ -3469,10 +3463,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -3501,10 +3495,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
@@ -3533,7 +3527,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3565,7 +3559,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3597,7 +3591,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3623,13 +3617,13 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3661,7 +3655,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3693,7 +3687,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3725,7 +3719,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3757,7 +3751,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3789,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3821,7 +3815,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3853,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3885,10 +3879,10 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H115" t="s">
         <v>58</v>
@@ -3917,10 +3911,10 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H116" t="s">
         <v>58</v>
@@ -3949,7 +3943,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3981,7 +3975,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4013,7 +4007,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4045,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4077,10 +4071,10 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
         <v>58</v>
@@ -4109,10 +4103,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H122" t="s">
         <v>58</v>
@@ -4141,7 +4135,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4173,10 +4167,10 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H124" t="s">
         <v>58</v>
@@ -4205,10 +4199,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H125" t="s">
         <v>58</v>
@@ -4237,7 +4231,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4269,7 +4263,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4301,10 +4295,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H128" t="s">
         <v>58</v>
@@ -4333,10 +4327,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H129" t="s">
         <v>58</v>
@@ -4365,7 +4359,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4397,10 +4391,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>58</v>
@@ -4429,10 +4423,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H132" t="s">
         <v>58</v>
@@ -4461,10 +4455,10 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H133" t="s">
         <v>58</v>
@@ -4493,10 +4487,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
-        <v>1.9890000000000001</v>
+        <v>9</v>
       </c>
       <c r="H134" t="s">
         <v>58</v>
@@ -4525,10 +4519,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
-        <v>3.0419999999999998</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="H135" t="s">
         <v>58</v>
@@ -4557,10 +4551,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="H136" t="s">
         <v>58</v>
@@ -4583,16 +4577,28 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>58</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
+      </c>
+      <c r="J137" t="s">
+        <v>59</v>
+      </c>
+      <c r="L137" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4609,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
@@ -4629,7 +4635,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
@@ -4649,7 +4655,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4669,7 +4675,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4689,7 +4695,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4709,7 +4715,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4729,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4749,7 +4755,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4769,7 +4775,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4789,7 +4795,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4809,7 +4815,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4829,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4849,7 +4855,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4869,7 +4875,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4889,7 +4895,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4909,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4929,7 +4935,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4949,7 +4955,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4969,7 +4975,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4989,7 +4995,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5009,7 +5015,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5029,7 +5035,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5049,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5069,7 +5075,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5089,7 +5095,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5109,7 +5115,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5129,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5149,22 +5155,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>19</v>
-      </c>
-      <c r="H165" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
-      </c>
-      <c r="J165" t="s">
-        <v>62</v>
-      </c>
-      <c r="L165" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5181,10 +5175,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>19</v>
+      </c>
+      <c r="H166" t="s">
+        <v>61</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
+      </c>
+      <c r="J166" t="s">
+        <v>62</v>
+      </c>
+      <c r="L166" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5195,13 +5201,13 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5221,7 +5227,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5241,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5261,7 +5267,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5281,7 +5287,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5301,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5321,7 +5327,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5341,7 +5347,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5361,7 +5367,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5381,7 +5387,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5401,7 +5407,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5421,7 +5427,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5441,7 +5447,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5461,7 +5467,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5481,7 +5487,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5501,7 +5507,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5521,7 +5527,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5541,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5561,7 +5567,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5581,7 +5587,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5601,7 +5607,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5621,7 +5627,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5641,7 +5647,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5661,7 +5667,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5681,7 +5687,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5701,7 +5707,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -5721,7 +5727,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5741,7 +5747,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -5761,22 +5767,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>880</v>
-      </c>
-      <c r="H195" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
-      </c>
-      <c r="J195" t="s">
-        <v>62</v>
-      </c>
-      <c r="L195" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5793,10 +5787,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>880</v>
+      </c>
+      <c r="H196" t="s">
+        <v>61</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
+      </c>
+      <c r="J196" t="s">
+        <v>62</v>
+      </c>
+      <c r="L196" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5807,13 +5813,13 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5833,7 +5839,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -5853,7 +5859,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5873,7 +5879,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5893,7 +5899,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5913,7 +5919,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5933,7 +5939,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5953,7 +5959,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5973,7 +5979,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5993,7 +5999,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6013,7 +6019,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6033,7 +6039,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6053,7 +6059,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6073,7 +6079,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6093,7 +6099,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6113,7 +6119,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6133,7 +6139,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6153,7 +6159,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6173,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6193,7 +6199,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6213,7 +6219,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6233,7 +6239,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6253,7 +6259,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6273,7 +6279,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6293,7 +6299,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6313,7 +6319,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6333,7 +6339,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6353,7 +6359,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6373,22 +6379,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H225" t="s">
-        <v>64</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
-      </c>
-      <c r="J225" t="s">
-        <v>62</v>
-      </c>
-      <c r="L225" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6405,10 +6399,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H226" t="s">
+        <v>64</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
+      </c>
+      <c r="J226" t="s">
+        <v>62</v>
+      </c>
+      <c r="L226" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6419,28 +6425,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>58</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
-      </c>
-      <c r="J227" t="s">
-        <v>59</v>
-      </c>
-      <c r="L227" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6457,7 +6451,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6489,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6521,7 +6515,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6553,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6585,7 +6579,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6617,7 +6611,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6649,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6681,10 +6675,10 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H235" t="s">
         <v>58</v>
@@ -6713,10 +6707,10 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H236" t="s">
         <v>58</v>
@@ -6745,7 +6739,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6777,7 +6771,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6809,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6841,7 +6835,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6873,7 +6867,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6905,7 +6899,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6937,7 +6931,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6969,7 +6963,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7001,7 +6995,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7033,7 +7027,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7065,7 +7059,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7097,7 +7091,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7129,7 +7123,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7161,7 +7155,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7193,7 +7187,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7225,7 +7219,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7257,7 +7251,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7289,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7321,7 +7315,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7353,7 +7347,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7371,7 +7365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7379,25 +7373,31 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>58</v>
       </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
       <c r="J257" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="L257" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7411,16 +7411,19 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J258" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.85</v>
@@ -7443,7 +7446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.85</v>
@@ -7466,7 +7469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7489,7 +7492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7512,7 +7515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7535,7 +7538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7558,7 +7561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7581,7 +7584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7595,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7604,7 +7607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7627,7 +7630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7650,7 +7653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7673,7 +7676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7696,7 +7699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7719,7 +7722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7756,7 +7759,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7779,7 +7782,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7802,7 +7805,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7825,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7848,7 +7851,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7871,7 +7874,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7894,7 +7897,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7917,7 +7920,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7940,7 +7943,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7963,7 +7966,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -7986,7 +7989,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -8009,7 +8012,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8032,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8055,7 +8058,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8072,22 +8075,19 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
-      </c>
-      <c r="J287" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8104,13 +8104,16 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
+      </c>
+      <c r="J288" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8127,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.2</v>
@@ -8150,7 +8153,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.2</v>
@@ -8173,7 +8176,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.2</v>
@@ -8196,7 +8199,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.2</v>
@@ -8219,7 +8222,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.2</v>
@@ -8242,7 +8245,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.2</v>
@@ -8265,7 +8268,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.2</v>
@@ -8288,7 +8291,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.2</v>
@@ -8311,7 +8314,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.2</v>
@@ -8334,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.2</v>
@@ -8357,7 +8360,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.2</v>
@@ -8380,7 +8383,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.2</v>
@@ -8403,7 +8406,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.2</v>
@@ -8426,7 +8429,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.2</v>
@@ -8449,7 +8452,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.2</v>
@@ -8472,7 +8475,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.2</v>
@@ -8495,7 +8498,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.2</v>
@@ -8518,7 +8521,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.2</v>
@@ -8541,7 +8544,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.2</v>
@@ -8564,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.2</v>
@@ -8587,7 +8590,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.2</v>
@@ -8610,7 +8613,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.2</v>
@@ -8633,7 +8636,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.2</v>
@@ -8656,7 +8659,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.2</v>
@@ -8679,7 +8682,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.2</v>
@@ -8702,7 +8705,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.2</v>
@@ -8725,7 +8728,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.2</v>
@@ -8748,7 +8751,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.2</v>
@@ -8757,11 +8760,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.2</v>
+      </c>
+      <c r="I317" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3376F1-662F-494E-93FA-5A881B4D6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC8DEB-1BD9-4D42-8165-6ED6703B4F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="73">
   <si>
     <t>Name:</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -664,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,16 +779,16 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7">
-        <v>0.44790000000000002</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -791,16 +800,16 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -812,26 +821,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -841,17 +842,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -860,20 +862,26 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -883,19 +891,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -905,21 +912,20 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -929,13 +935,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>53</v>
+      <c r="G14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -950,13 +956,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -971,23 +980,20 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
-        <v>0.85</v>
+      <c r="H16" t="s">
+        <v>53</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -995,77 +1001,67 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>0.85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
         <v>0.6</v>
       </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
-      </c>
-      <c r="G18">
-        <v>330</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1075,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
+      </c>
+      <c r="G20">
+        <v>330</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -1091,7 +1090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -1117,7 +1116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -1143,7 +1142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -1169,7 +1168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -1195,7 +1194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -1221,7 +1220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -1247,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -1273,7 +1272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1287,10 +1286,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
-      </c>
-      <c r="G28">
-        <v>857</v>
+        <v>1998</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -1302,7 +1298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -1328,7 +1324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1338,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
+      </c>
+      <c r="G30">
+        <v>857</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -1354,7 +1353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -1380,7 +1379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -1420,10 +1419,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
-      </c>
-      <c r="G33">
-        <v>870</v>
+        <v>2003</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -1449,7 +1445,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -1475,7 +1471,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
+      </c>
+      <c r="G35">
+        <v>870</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -1501,7 +1500,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1527,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -1553,10 +1552,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
-      </c>
-      <c r="G38">
-        <v>1028</v>
+        <v>2008</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -1582,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -1608,10 +1604,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>919</v>
+        <v>1028</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -1637,10 +1633,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
-      </c>
-      <c r="G41">
-        <v>769</v>
+        <v>2011</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -1666,10 +1659,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>521</v>
+        <v>919</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -1695,7 +1688,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="G43">
+        <v>769</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -1721,7 +1717,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G44">
+        <v>521</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -1747,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -1773,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -1799,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -1819,25 +1818,22 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
-      </c>
-      <c r="G48">
-        <v>63</v>
+        <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -1848,25 +1844,22 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
-      </c>
-      <c r="G49">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -1883,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>63</v>
@@ -1912,7 +1905,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>63</v>
@@ -1941,10 +1934,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
@@ -1970,10 +1963,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H53" t="s">
         <v>58</v>
@@ -1999,10 +1992,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="H54" t="s">
         <v>58</v>
@@ -2028,10 +2021,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
         <v>58</v>
@@ -2057,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="H56" t="s">
         <v>58</v>
@@ -2086,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
         <v>58</v>
@@ -2115,10 +2108,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H58" t="s">
         <v>58</v>
@@ -2144,10 +2137,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
@@ -2173,10 +2166,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H60" t="s">
         <v>58</v>
@@ -2202,10 +2195,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="H61" t="s">
         <v>58</v>
@@ -2231,10 +2224,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
@@ -2260,10 +2253,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="H63" t="s">
         <v>58</v>
@@ -2289,10 +2282,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="H64" t="s">
         <v>58</v>
@@ -2318,10 +2311,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
         <v>58</v>
@@ -2347,10 +2340,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
@@ -2376,10 +2369,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="H67" t="s">
         <v>58</v>
@@ -2405,10 +2398,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="H68" t="s">
         <v>58</v>
@@ -2434,10 +2427,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H69" t="s">
         <v>58</v>
@@ -2463,10 +2456,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H70" t="s">
         <v>58</v>
@@ -2492,10 +2485,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="H71" t="s">
         <v>58</v>
@@ -2521,10 +2514,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
@@ -2550,10 +2543,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
         <v>58</v>
@@ -2579,10 +2572,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
         <v>58</v>
@@ -2608,10 +2601,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>228.011</v>
+        <v>239</v>
       </c>
       <c r="H75" t="s">
         <v>58</v>
@@ -2637,10 +2630,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>224.96899999999999</v>
+        <v>230</v>
       </c>
       <c r="H76" t="s">
         <v>58</v>
@@ -2666,10 +2659,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>224.96899999999999</v>
+        <v>228.011</v>
       </c>
       <c r="H77" t="s">
         <v>58</v>
@@ -2689,16 +2682,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>224.96899999999999</v>
       </c>
       <c r="H78" t="s">
         <v>58</v>
@@ -2708,9 +2701,6 @@
       </c>
       <c r="J78" t="s">
         <v>59</v>
-      </c>
-      <c r="L78" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2721,16 +2711,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>224.96899999999999</v>
       </c>
       <c r="H79" t="s">
         <v>58</v>
@@ -2740,9 +2730,6 @@
       </c>
       <c r="J79" t="s">
         <v>59</v>
-      </c>
-      <c r="L79" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,7 +2746,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2791,7 +2778,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2823,10 +2810,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>58</v>
@@ -2855,10 +2842,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>58</v>
@@ -2887,10 +2874,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H84" t="s">
         <v>58</v>
@@ -2919,10 +2906,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s">
         <v>58</v>
@@ -2951,10 +2938,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86" t="s">
         <v>58</v>
@@ -2983,10 +2970,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H87" t="s">
         <v>58</v>
@@ -3015,10 +3002,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>58</v>
@@ -3047,10 +3034,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
@@ -3079,10 +3066,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
         <v>58</v>
@@ -3111,10 +3098,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>58</v>
@@ -3143,10 +3130,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
         <v>58</v>
@@ -3175,10 +3162,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
         <v>58</v>
@@ -3207,10 +3194,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
         <v>58</v>
@@ -3239,10 +3226,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
         <v>58</v>
@@ -3271,10 +3258,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
@@ -3303,10 +3290,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>58</v>
@@ -3335,10 +3322,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H98" t="s">
         <v>58</v>
@@ -3367,10 +3354,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
         <v>58</v>
@@ -3399,10 +3386,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
         <v>58</v>
@@ -3431,10 +3418,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>58</v>
@@ -3463,10 +3450,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -3495,10 +3482,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
@@ -3527,7 +3514,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3559,10 +3546,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>58</v>
@@ -3591,7 +3578,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3623,7 +3610,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3649,13 +3636,13 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3681,13 +3668,13 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3719,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3751,7 +3738,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3783,7 +3770,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3815,7 +3802,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3847,7 +3834,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3879,7 +3866,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3911,10 +3898,10 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H116" t="s">
         <v>58</v>
@@ -3943,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3975,10 +3962,10 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H118" t="s">
         <v>58</v>
@@ -4007,7 +3994,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4039,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4071,7 +4058,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4103,10 +4090,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H122" t="s">
         <v>58</v>
@@ -4135,7 +4122,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4167,10 +4154,10 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H124" t="s">
         <v>58</v>
@@ -4199,10 +4186,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
         <v>58</v>
@@ -4231,7 +4218,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4263,10 +4250,10 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>58</v>
@@ -4295,7 +4282,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4327,10 +4314,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H129" t="s">
         <v>58</v>
@@ -4359,7 +4346,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4391,10 +4378,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H131" t="s">
         <v>58</v>
@@ -4423,10 +4410,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>58</v>
@@ -4455,7 +4442,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4487,10 +4474,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H134" t="s">
         <v>58</v>
@@ -4519,10 +4506,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
-        <v>1.9890000000000001</v>
+        <v>0</v>
       </c>
       <c r="H135" t="s">
         <v>58</v>
@@ -4551,10 +4538,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
-        <v>3.0419999999999998</v>
+        <v>9</v>
       </c>
       <c r="H136" t="s">
         <v>58</v>
@@ -4583,10 +4570,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="H137" t="s">
         <v>58</v>
@@ -4609,16 +4596,28 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="H138" t="s">
+        <v>58</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
+      </c>
+      <c r="J138" t="s">
+        <v>59</v>
+      </c>
+      <c r="L138" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4629,16 +4628,28 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>58</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
+      </c>
+      <c r="J139" t="s">
+        <v>59</v>
+      </c>
+      <c r="L139" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4655,7 +4666,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4675,7 +4686,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4695,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4715,7 +4726,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4735,7 +4746,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4755,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4775,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4795,7 +4806,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4815,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4835,7 +4846,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4855,7 +4866,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4875,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4895,7 +4906,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4915,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4935,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4955,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4975,7 +4986,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4995,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5015,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5035,7 +5046,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5055,7 +5066,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5075,7 +5086,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5095,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5115,7 +5126,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5135,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5155,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5175,22 +5186,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>19</v>
-      </c>
-      <c r="H166" t="s">
-        <v>61</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
-      </c>
-      <c r="J166" t="s">
-        <v>62</v>
-      </c>
-      <c r="L166" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5207,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5221,16 +5220,28 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>61</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
+      </c>
+      <c r="J168" t="s">
+        <v>62</v>
+      </c>
+      <c r="L168" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5241,13 +5252,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5267,7 +5278,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5287,7 +5298,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5307,7 +5318,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5327,7 +5338,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5347,7 +5358,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5367,7 +5378,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5387,7 +5398,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5407,7 +5418,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5427,7 +5438,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5447,7 +5458,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5467,7 +5478,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5487,7 +5498,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5507,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5527,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5547,7 +5558,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5567,7 +5578,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5587,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5607,7 +5618,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5627,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5647,7 +5658,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5667,7 +5678,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5687,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5707,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -5727,7 +5738,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5747,7 +5758,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -5767,7 +5778,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -5787,22 +5798,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>880</v>
-      </c>
-      <c r="H196" t="s">
-        <v>61</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
-      </c>
-      <c r="J196" t="s">
-        <v>62</v>
-      </c>
-      <c r="L196" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5819,7 +5818,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5833,16 +5832,28 @@
         <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>880</v>
+      </c>
+      <c r="H198" t="s">
+        <v>61</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
+      </c>
+      <c r="J198" t="s">
+        <v>62</v>
+      </c>
+      <c r="L198" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5853,13 +5864,13 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5879,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5899,7 +5910,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5919,7 +5930,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5939,7 +5950,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5959,7 +5970,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5979,7 +5990,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5999,7 +6010,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6019,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6039,7 +6050,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6059,7 +6070,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6079,7 +6090,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6099,7 +6110,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6119,7 +6130,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6139,7 +6150,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6159,7 +6170,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6179,7 +6190,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6199,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6219,7 +6230,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6239,7 +6250,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6259,7 +6270,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6279,7 +6290,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6299,7 +6310,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6319,7 +6330,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6339,7 +6350,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6359,7 +6370,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6379,7 +6390,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6399,22 +6410,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H226" t="s">
-        <v>64</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
-      </c>
-      <c r="J226" t="s">
-        <v>62</v>
-      </c>
-      <c r="L226" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6431,7 +6430,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6445,28 +6444,28 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H228" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
       </c>
       <c r="J228" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L228" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6477,28 +6476,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>58</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
-      </c>
-      <c r="J229" t="s">
-        <v>59</v>
-      </c>
-      <c r="L229" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6515,7 +6502,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6547,7 +6534,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6579,7 +6566,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6611,7 +6598,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6643,7 +6630,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6675,7 +6662,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6707,10 +6694,10 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
         <v>58</v>
@@ -6739,7 +6726,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6771,10 +6758,10 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H238" t="s">
         <v>58</v>
@@ -6803,7 +6790,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6835,7 +6822,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6867,7 +6854,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6899,7 +6886,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6931,7 +6918,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6963,7 +6950,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6995,7 +6982,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7027,7 +7014,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7059,7 +7046,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7091,7 +7078,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7123,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7155,7 +7142,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7187,7 +7174,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7219,7 +7206,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7251,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7283,7 +7270,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7315,7 +7302,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7347,7 +7334,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7379,7 +7366,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7405,22 +7392,28 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>58</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
       <c r="J258" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="L258" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7431,19 +7424,28 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.85</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>58</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
+      </c>
+      <c r="J259" t="s">
+        <v>59</v>
+      </c>
+      <c r="L259" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7460,13 +7462,16 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
+      </c>
+      <c r="J260" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7483,7 +7488,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7506,7 +7511,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7529,7 +7534,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7552,7 +7557,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7575,7 +7580,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7598,7 +7603,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7621,7 +7626,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7644,7 +7649,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7667,7 +7672,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7690,7 +7695,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7713,7 +7718,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7736,7 +7741,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7745,7 +7750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -7759,7 +7764,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7768,7 +7773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -7782,7 +7787,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7791,7 +7796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7814,7 +7819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7837,7 +7842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7860,7 +7865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -7874,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7883,7 +7888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -7897,7 +7902,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7906,7 +7911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -7920,7 +7925,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7929,7 +7934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -7943,7 +7948,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7952,7 +7957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>16</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -7975,7 +7980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -7989,7 +7994,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -7998,7 +8003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -8012,7 +8017,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8021,7 +8026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>16</v>
       </c>
@@ -8035,7 +8040,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8044,7 +8049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8067,7 +8072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8090,7 +8095,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -8098,25 +8103,22 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
       </c>
-      <c r="J288" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -8124,22 +8126,22 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -8153,16 +8155,19 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.2</v>
@@ -8185,7 +8190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -8199,7 +8204,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.2</v>
@@ -8208,7 +8213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8227,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.2</v>
@@ -8231,7 +8236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -8245,7 +8250,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.2</v>
@@ -8254,7 +8259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8268,7 +8273,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.2</v>
@@ -8277,7 +8282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.2</v>
@@ -8300,7 +8305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.2</v>
@@ -8323,7 +8328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8342,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.2</v>
@@ -8346,7 +8351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -8360,7 +8365,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.2</v>
@@ -8369,7 +8374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -8383,7 +8388,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.2</v>
@@ -8392,7 +8397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8411,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.2</v>
@@ -8415,7 +8420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8429,7 +8434,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.2</v>
@@ -8438,7 +8443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -8452,7 +8457,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.2</v>
@@ -8461,7 +8466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -8475,7 +8480,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.2</v>
@@ -8498,7 +8503,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.2</v>
@@ -8521,7 +8526,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.2</v>
@@ -8544,7 +8549,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.2</v>
@@ -8567,7 +8572,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.2</v>
@@ -8590,7 +8595,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.2</v>
@@ -8613,7 +8618,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.2</v>
@@ -8636,7 +8641,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.2</v>
@@ -8659,7 +8664,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.2</v>
@@ -8682,7 +8687,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.2</v>
@@ -8705,7 +8710,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.2</v>
@@ -8728,7 +8733,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.2</v>
@@ -8751,7 +8756,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.2</v>
@@ -8774,7 +8779,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.2</v>
@@ -8783,11 +8788,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.2</v>
+      </c>
+      <c r="I318" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.2</v>
+      </c>
+      <c r="I319" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_gas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC8DEB-1BD9-4D42-8165-6ED6703B4F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDCF7F-436A-DA4F-A88D-DB647B5A4C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -242,9 +242,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,10 +782,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -800,10 +803,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -898,10 +901,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
